--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2411.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2411.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.041959680128725</v>
+        <v>1.228422045707703</v>
       </c>
       <c r="B1">
-        <v>2.123980319107866</v>
+        <v>1.98248028755188</v>
       </c>
       <c r="C1">
-        <v>9.510546922365311</v>
+        <v>4.308877468109131</v>
       </c>
       <c r="D1">
-        <v>1.920652867275872</v>
+        <v>2.987842559814453</v>
       </c>
       <c r="E1">
-        <v>1.0011328441949</v>
+        <v>1.181873798370361</v>
       </c>
     </row>
   </sheetData>
